--- a/rider/weekly/2016_33.xlsx
+++ b/rider/weekly/2016_33.xlsx
@@ -195,22 +195,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>177</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>84</c:v>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>95.22</c:v>
+                  <c:v>95.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.78</c:v>
+                  <c:v>97.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.7</c:v>
+                  <c:v>103.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.92</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.68</c:v>
+                  <c:v>100.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.46</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.98</c:v>
+                  <c:v>35.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D2">
-        <v>95.22</v>
+        <v>95.09</v>
       </c>
       <c r="E2">
         <v>75.91</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D3">
-        <v>97.78</v>
+        <v>97.88</v>
       </c>
       <c r="E3">
         <v>76.07</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4">
-        <v>104.7</v>
+        <v>103.58</v>
       </c>
       <c r="E4">
         <v>76.23</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D5">
-        <v>101.92</v>
+        <v>102</v>
       </c>
       <c r="E5">
         <v>76.39</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D6">
-        <v>99.68</v>
+        <v>100.11</v>
       </c>
       <c r="E6">
         <v>76.55</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>42.46</v>
+        <v>42.5</v>
       </c>
       <c r="E7">
         <v>76.71</v>
@@ -915,7 +915,7 @@
         <v>84</v>
       </c>
       <c r="D8">
-        <v>34.98</v>
+        <v>35.02</v>
       </c>
       <c r="E8">
         <v>76.88</v>

--- a/rider/weekly/2016_33.xlsx
+++ b/rider/weekly/2016_33.xlsx
@@ -195,22 +195,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>184</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>195</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>208</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>84</c:v>
@@ -271,22 +271,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>95.09</c:v>
+                  <c:v>95.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.88</c:v>
+                  <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.58</c:v>
+                  <c:v>103.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>102.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.11</c:v>
+                  <c:v>99.96</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.5</c:v>
+                  <c:v>42.54</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>35.02</c:v>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D2">
-        <v>95.09</v>
+        <v>95.58</v>
       </c>
       <c r="E2">
         <v>75.91</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D3">
-        <v>97.88</v>
+        <v>97.82</v>
       </c>
       <c r="E3">
         <v>76.07</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D4">
-        <v>103.58</v>
+        <v>103.84</v>
       </c>
       <c r="E4">
         <v>76.23</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>102.32</v>
       </c>
       <c r="E5">
         <v>76.39</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D6">
-        <v>100.11</v>
+        <v>99.96</v>
       </c>
       <c r="E6">
         <v>76.55</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>42.5</v>
+        <v>42.54</v>
       </c>
       <c r="E7">
         <v>76.71</v>

--- a/rider/weekly/2016_33.xlsx
+++ b/rider/weekly/2016_33.xlsx
@@ -195,22 +195,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>178</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>199</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>203</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>84</c:v>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>95.58</c:v>
+                  <c:v>95.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>97.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.84</c:v>
+                  <c:v>104.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.32</c:v>
+                  <c:v>102.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.96</c:v>
+                  <c:v>99.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.54</c:v>
+                  <c:v>42.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.02</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D2">
-        <v>95.58</v>
+        <v>95.51</v>
       </c>
       <c r="E2">
         <v>75.91</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D3">
         <v>97.82</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>103.84</v>
+        <v>104.14</v>
       </c>
       <c r="E4">
         <v>76.23</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>102.32</v>
+        <v>102.2</v>
       </c>
       <c r="E5">
         <v>76.39</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6">
-        <v>99.96</v>
+        <v>99.94</v>
       </c>
       <c r="E6">
         <v>76.55</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D7">
-        <v>42.54</v>
+        <v>42.58</v>
       </c>
       <c r="E7">
         <v>76.71</v>
@@ -915,7 +915,7 @@
         <v>84</v>
       </c>
       <c r="D8">
-        <v>35.02</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>76.88</v>
